--- a/PCQM/pcqm.xlsx
+++ b/PCQM/pcqm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="18">
   <si>
     <t>Distance (m)</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>AH</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>a?</t>
+  </si>
+  <si>
+    <t>SALLOW</t>
+  </si>
+  <si>
+    <t>AH/SALLOW</t>
+  </si>
+  <si>
+    <t>S. BIRCH</t>
   </si>
 </sst>
 </file>
@@ -389,12 +404,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1806"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="F369" sqref="F369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
@@ -1203,6 +1219,9 @@
       <c r="E54" s="1">
         <v>7.21</v>
       </c>
+      <c r="F54">
+        <v>46</v>
+      </c>
     </row>
     <row r="55" spans="2:6">
       <c r="C55" t="s">
@@ -1214,6 +1233,9 @@
       <c r="E55" s="1">
         <v>6.17</v>
       </c>
+      <c r="F55">
+        <v>34</v>
+      </c>
     </row>
     <row r="56" spans="2:6">
       <c r="C56" t="s">
@@ -1225,6 +1247,9 @@
       <c r="E56" s="1">
         <v>8.31</v>
       </c>
+      <c r="F56">
+        <v>39</v>
+      </c>
     </row>
     <row r="57" spans="2:6">
       <c r="C57" t="s">
@@ -1235,6 +1260,9 @@
       </c>
       <c r="E57" s="1">
         <v>2.64</v>
+      </c>
+      <c r="F57">
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:6">
@@ -1250,6 +1278,9 @@
       <c r="E58" s="1">
         <v>4.04</v>
       </c>
+      <c r="F58">
+        <v>27</v>
+      </c>
     </row>
     <row r="59" spans="2:6">
       <c r="C59" t="s">
@@ -1261,6 +1292,9 @@
       <c r="E59" s="1">
         <v>7.93</v>
       </c>
+      <c r="F59">
+        <v>36</v>
+      </c>
     </row>
     <row r="60" spans="2:6">
       <c r="C60" t="s">
@@ -1272,6 +1306,9 @@
       <c r="E60" s="1">
         <v>8.3699999999999992</v>
       </c>
+      <c r="F60">
+        <v>31</v>
+      </c>
     </row>
     <row r="61" spans="2:6">
       <c r="C61" t="s">
@@ -1282,6 +1319,9 @@
       </c>
       <c r="E61" s="1">
         <v>7.26</v>
+      </c>
+      <c r="F61">
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="2:6">
@@ -1297,6 +1337,9 @@
       <c r="E62" s="1">
         <v>6.5</v>
       </c>
+      <c r="F62">
+        <v>39</v>
+      </c>
     </row>
     <row r="63" spans="2:6">
       <c r="C63" t="s">
@@ -1308,6 +1351,9 @@
       <c r="E63" s="1">
         <v>8.9600000000000009</v>
       </c>
+      <c r="F63">
+        <v>41</v>
+      </c>
     </row>
     <row r="64" spans="2:6">
       <c r="C64" t="s">
@@ -1319,8 +1365,11 @@
       <c r="E64" s="1">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="65" spans="2:5">
+      <c r="F64">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
       <c r="C65" t="s">
         <v>9</v>
       </c>
@@ -1330,8 +1379,11 @@
       <c r="E65" s="1">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="66" spans="2:5">
+      <c r="F65">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
       <c r="B66">
         <v>51</v>
       </c>
@@ -1344,8 +1396,11 @@
       <c r="E66" s="1">
         <v>4.92</v>
       </c>
-    </row>
-    <row r="67" spans="2:5">
+      <c r="F66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
       <c r="C67" t="s">
         <v>7</v>
       </c>
@@ -1355,8 +1410,11 @@
       <c r="E67" s="1">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="68" spans="2:5">
+      <c r="F67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
       <c r="C68" t="s">
         <v>8</v>
       </c>
@@ -1366,8 +1424,11 @@
       <c r="E68" s="1">
         <v>5.54</v>
       </c>
-    </row>
-    <row r="69" spans="2:5">
+      <c r="F68">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
       <c r="C69" t="s">
         <v>9</v>
       </c>
@@ -1377,8 +1438,11 @@
       <c r="E69" s="1">
         <v>6.93</v>
       </c>
-    </row>
-    <row r="70" spans="2:5">
+      <c r="F69">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
       <c r="B70">
         <v>53</v>
       </c>
@@ -1391,8 +1455,11 @@
       <c r="E70" s="1">
         <v>5.21</v>
       </c>
-    </row>
-    <row r="71" spans="2:5">
+      <c r="F70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
       <c r="C71" t="s">
         <v>7</v>
       </c>
@@ -1402,8 +1469,11 @@
       <c r="E71" s="1">
         <v>8.4499999999999993</v>
       </c>
-    </row>
-    <row r="72" spans="2:5">
+      <c r="F71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
       <c r="C72" t="s">
         <v>8</v>
       </c>
@@ -1413,8 +1483,11 @@
       <c r="E72" s="1">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="73" spans="2:5">
+      <c r="F72">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
       <c r="C73" t="s">
         <v>9</v>
       </c>
@@ -1424,8 +1497,11 @@
       <c r="E73" s="1">
         <v>6.72</v>
       </c>
-    </row>
-    <row r="74" spans="2:5">
+      <c r="F73">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
       <c r="B74">
         <v>59</v>
       </c>
@@ -1438,8 +1514,11 @@
       <c r="E74" s="1">
         <v>8.3699999999999992</v>
       </c>
-    </row>
-    <row r="75" spans="2:5">
+      <c r="F74">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
       <c r="C75" t="s">
         <v>7</v>
       </c>
@@ -1449,8 +1528,11 @@
       <c r="E75" s="1">
         <v>4.9800000000000004</v>
       </c>
-    </row>
-    <row r="76" spans="2:5">
+      <c r="F75">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
       <c r="C76" t="s">
         <v>8</v>
       </c>
@@ -1460,8 +1542,11 @@
       <c r="E76" s="1">
         <v>5.92</v>
       </c>
-    </row>
-    <row r="77" spans="2:5">
+      <c r="F76">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
       <c r="C77" t="s">
         <v>9</v>
       </c>
@@ -1471,8 +1556,11 @@
       <c r="E77" s="1">
         <v>7.71</v>
       </c>
-    </row>
-    <row r="78" spans="2:5">
+      <c r="F77">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
       <c r="B78">
         <v>63</v>
       </c>
@@ -1485,8 +1573,11 @@
       <c r="E78" s="1">
         <v>7.76</v>
       </c>
-    </row>
-    <row r="79" spans="2:5">
+      <c r="F78">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
       <c r="C79" t="s">
         <v>7</v>
       </c>
@@ -1496,8 +1587,11 @@
       <c r="E79" s="1">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="80" spans="2:5">
+      <c r="F79">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
       <c r="C80" t="s">
         <v>8</v>
       </c>
@@ -1507,8 +1601,11 @@
       <c r="E80" s="1">
         <v>13.26</v>
       </c>
-    </row>
-    <row r="81" spans="2:5">
+      <c r="F80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
       <c r="C81" t="s">
         <v>9</v>
       </c>
@@ -1518,1696 +1615,4588 @@
       <c r="E81" s="1">
         <v>6.08</v>
       </c>
-    </row>
-    <row r="82" spans="2:5">
+      <c r="F81">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
       <c r="B82">
         <v>68</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="2:5">
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="F82">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
       <c r="C83" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="2:5">
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="F83">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
       <c r="C84" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="2:5">
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="F84">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
       <c r="C85" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="2:5">
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="1">
+        <v>6.02</v>
+      </c>
+      <c r="F85">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
       <c r="B86">
         <v>71</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="2:5">
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F86">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
       <c r="C87" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="2:5">
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="1">
+        <v>5.84</v>
+      </c>
+      <c r="F87">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
       <c r="C88" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="2:5">
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F88">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
       <c r="C89" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="2:5">
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="1">
+        <v>11</v>
+      </c>
+      <c r="F89">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
       <c r="B90">
         <v>73</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:5">
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="F90">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
       <c r="C91" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="2:5">
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="1">
+        <v>7.76</v>
+      </c>
+      <c r="F91">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
       <c r="C92" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="2:5">
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="F92">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
       <c r="C93" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:5">
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="1">
+        <v>6.87</v>
+      </c>
+      <c r="F93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
       <c r="B94">
         <v>79</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="2:5">
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="F94">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
       <c r="C95" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="2:5">
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="1">
+        <v>9.02</v>
+      </c>
+      <c r="F95">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
       <c r="C96" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="2:3">
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="1">
+        <v>10.67</v>
+      </c>
+      <c r="F96">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
       <c r="C97" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="2:3">
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="1">
+        <v>4.46</v>
+      </c>
+      <c r="F97">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
       <c r="B98">
         <v>84</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="2:3">
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="F98">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
       <c r="C99" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="2:3">
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="F99">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
       <c r="C100" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="2:3">
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="F100">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
       <c r="C101" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="2:3">
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="1">
+        <v>7.06</v>
+      </c>
+      <c r="F101">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
       <c r="B102">
         <v>86</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="2:3">
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="1">
+        <v>6.28</v>
+      </c>
+      <c r="F102">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
       <c r="C103" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="2:3">
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="1">
+        <v>3.16</v>
+      </c>
+      <c r="F103">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
       <c r="C104" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:3">
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="F104">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
       <c r="C105" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="2:3">
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="1">
+        <v>5.27</v>
+      </c>
+      <c r="F105">
+        <v>40</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106">
+        <v>88</v>
+      </c>
       <c r="C106" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="2:3">
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="F106">
+        <v>40</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
       <c r="C107" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="2:3">
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F107">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
       <c r="C108" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:3">
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="1">
+        <v>9.48</v>
+      </c>
+      <c r="F108">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
       <c r="C109" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="2:3">
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="F109">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110">
+        <v>93</v>
+      </c>
       <c r="C110" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="2:3">
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="F110">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
       <c r="C111" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="2:3">
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="1">
+        <v>6.77</v>
+      </c>
+      <c r="F111">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
       <c r="C112" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="3:3">
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="1">
+        <v>13.44</v>
+      </c>
+      <c r="F112">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
       <c r="C113" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="3:3">
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="1">
+        <v>4.62</v>
+      </c>
+      <c r="F113">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114">
+        <v>98</v>
+      </c>
       <c r="C114" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="3:3">
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="1">
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
       <c r="C115" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="3:3">
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="1">
+        <v>9.14</v>
+      </c>
+      <c r="F115">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
       <c r="C116" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="3:3">
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="1">
+        <v>2.72</v>
+      </c>
+      <c r="F116">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
       <c r="C117" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="3:3">
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="F117">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118">
+        <v>103</v>
+      </c>
       <c r="C118" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="3:3">
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="1">
+        <v>17.23</v>
+      </c>
+      <c r="F118">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
       <c r="C119" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="3:3">
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="F119">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
       <c r="C120" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="3:3">
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="1">
+        <v>10.77</v>
+      </c>
+      <c r="F120">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
       <c r="C121" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="3:3">
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="1">
+        <v>7.15</v>
+      </c>
+      <c r="F121">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122">
+        <v>108</v>
+      </c>
       <c r="C122" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="3:3">
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="1">
+        <v>8.65</v>
+      </c>
+      <c r="F122">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
       <c r="C123" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="3:3">
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="1">
+        <v>5.09</v>
+      </c>
+      <c r="F123">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
       <c r="C124" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="3:3">
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="1">
+        <v>8.19</v>
+      </c>
+      <c r="F124">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
       <c r="C125" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="3:3">
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="F125">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126">
+        <v>111</v>
+      </c>
       <c r="C126" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="3:3">
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="1">
+        <v>6.17</v>
+      </c>
+      <c r="F126">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
       <c r="C127" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="3:3">
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="1">
+        <v>11.91</v>
+      </c>
+      <c r="F127">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
       <c r="C128" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="3:3">
+      <c r="D128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="1">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F128">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
       <c r="C129" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="3:3">
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="F129">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130">
+        <v>113</v>
+      </c>
       <c r="C130" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="3:3">
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="F130">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
       <c r="C131" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="3:3">
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="1">
+        <v>6.09</v>
+      </c>
+      <c r="F131">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
       <c r="C132" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="3:3">
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="1">
+        <v>8.64</v>
+      </c>
+      <c r="F132">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
       <c r="C133" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="3:3">
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="1">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F133">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="B134">
+        <v>116</v>
+      </c>
       <c r="C134" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="3:3">
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="1">
+        <v>5.69</v>
+      </c>
+      <c r="F134">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
       <c r="C135" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="3:3">
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="1">
+        <v>3.91</v>
+      </c>
+      <c r="F135">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6">
       <c r="C136" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="3:3">
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="1">
+        <v>8.06</v>
+      </c>
+      <c r="F136">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6">
       <c r="C137" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="138" spans="3:3">
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="F137">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138">
+        <v>121</v>
+      </c>
       <c r="C138" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="3:3">
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="1">
+        <v>6.46</v>
+      </c>
+      <c r="F138">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
       <c r="C139" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="3:3">
+      <c r="D139" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="1">
+        <v>8.35</v>
+      </c>
+      <c r="F139">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6">
       <c r="C140" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="3:3">
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="1">
+        <v>8.85</v>
+      </c>
+      <c r="F140">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6">
       <c r="C141" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="142" spans="3:3">
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="F141">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142">
+        <v>124</v>
+      </c>
       <c r="C142" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="3:3">
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="F142">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6">
       <c r="C143" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="3:3">
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="F143">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
       <c r="C144" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="3:3">
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="F144">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6">
       <c r="C145" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="146" spans="3:3">
+      <c r="D145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="1">
+        <v>8.18</v>
+      </c>
+      <c r="F145">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146">
+        <v>129</v>
+      </c>
       <c r="C146" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="3:3">
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" s="1">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="F146">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
       <c r="C147" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="148" spans="3:3">
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="1">
+        <v>6.81</v>
+      </c>
+      <c r="F147">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6">
       <c r="C148" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="3:3">
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="1">
+        <v>11.18</v>
+      </c>
+      <c r="F148">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
       <c r="C149" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="150" spans="3:3">
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="1">
+        <v>10.36</v>
+      </c>
+      <c r="F149">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150">
+        <v>134</v>
+      </c>
       <c r="C150" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="3:3">
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="F150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
       <c r="C151" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="3:3">
+      <c r="D151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="1">
+        <v>14.69</v>
+      </c>
+      <c r="F151">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6">
       <c r="C152" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="3:3">
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6">
       <c r="C153" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="154" spans="3:3">
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="1">
+        <v>6.06</v>
+      </c>
+      <c r="F153">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154">
+        <v>139</v>
+      </c>
       <c r="C154" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="3:3">
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="1">
+        <v>9.43</v>
+      </c>
+      <c r="F154">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6">
       <c r="C155" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="3:3">
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="1">
+        <v>7.15</v>
+      </c>
+      <c r="F155">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6">
       <c r="C156" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="3:3">
+      <c r="D156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="F156">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
       <c r="C157" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="3:3">
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="F157">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6">
+      <c r="B158">
+        <v>144</v>
+      </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="3:3">
+      <c r="D158" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="1">
+        <v>10.11</v>
+      </c>
+      <c r="F158">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6">
       <c r="C159" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="160" spans="3:3">
+      <c r="D159" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="F159">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6">
       <c r="C160" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="3:3">
+      <c r="D160" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="1">
+        <v>8.93</v>
+      </c>
+      <c r="F160">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6">
       <c r="C161" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="162" spans="3:3">
+      <c r="D161" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="1">
+        <v>5.92</v>
+      </c>
+      <c r="F161">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6">
+      <c r="B162">
+        <v>149</v>
+      </c>
       <c r="C162" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="3:3">
+      <c r="D162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="F162">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6">
       <c r="C163" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="164" spans="3:3">
+      <c r="D163" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="F163">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6">
       <c r="C164" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="3:3">
+      <c r="D164" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="1">
+        <v>5.47</v>
+      </c>
+      <c r="F164">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6">
       <c r="C165" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="166" spans="3:3">
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="F165">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6">
+      <c r="B166">
+        <v>154</v>
+      </c>
       <c r="C166" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="167" spans="3:3">
+      <c r="D166" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="F166">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6">
       <c r="C167" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="3:3">
+      <c r="D167" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="1">
+        <v>10.75</v>
+      </c>
+      <c r="F167">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6">
       <c r="C168" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="3:3">
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="1">
+        <v>5.49</v>
+      </c>
+      <c r="F168">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
       <c r="C169" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="170" spans="3:3">
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="1">
+        <v>9.64</v>
+      </c>
+      <c r="F169">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170">
+        <v>159</v>
+      </c>
       <c r="C170" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="3:3">
+      <c r="D170" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="1">
+        <v>10.93</v>
+      </c>
+      <c r="F170">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6">
       <c r="C171" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="3:3">
+      <c r="D171" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="1">
+        <v>7.47</v>
+      </c>
+      <c r="F171">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6">
       <c r="C172" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="3:3">
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="1">
+        <v>5.74</v>
+      </c>
+      <c r="F172">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6">
       <c r="C173" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="174" spans="3:3">
+      <c r="D173" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="1">
+        <v>3.09</v>
+      </c>
+      <c r="F173">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6">
+      <c r="B174">
+        <v>162</v>
+      </c>
       <c r="C174" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="175" spans="3:3">
+      <c r="D174" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="F174">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
       <c r="C175" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="176" spans="3:3">
+      <c r="D175" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="1">
+        <v>6.28</v>
+      </c>
+      <c r="F175">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
       <c r="C176" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="3:3">
+      <c r="D176" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="F176">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
       <c r="C177" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="178" spans="3:3">
+      <c r="D177" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="1">
+        <v>7.39</v>
+      </c>
+      <c r="F177">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178">
+        <v>167</v>
+      </c>
       <c r="C178" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="179" spans="3:3">
+      <c r="D178" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="F178">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
       <c r="C179" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="180" spans="3:3">
+      <c r="D179" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="1">
+        <v>3.08</v>
+      </c>
+      <c r="F179">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6">
       <c r="C180" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="3:3">
+      <c r="D180" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="F180">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6">
       <c r="C181" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="182" spans="3:3">
+      <c r="D181" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="1">
+        <v>9.49</v>
+      </c>
+      <c r="F181">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="B182">
+        <v>172</v>
+      </c>
       <c r="C182" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="3:3">
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F182">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6">
       <c r="C183" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="184" spans="3:3">
+      <c r="D183" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="F183">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6">
       <c r="C184" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="3:3">
+      <c r="D184" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="1">
+        <v>5.81</v>
+      </c>
+      <c r="F184">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6">
       <c r="C185" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="186" spans="3:3">
+      <c r="D185" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="1">
+        <v>8.44</v>
+      </c>
+      <c r="F185">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6">
+      <c r="B186">
+        <v>177</v>
+      </c>
       <c r="C186" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="3:3">
+      <c r="D186" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F186">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6">
       <c r="C187" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="3:3">
+      <c r="D187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="F187">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6">
       <c r="C188" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="3:3">
+      <c r="D188" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F188">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6">
       <c r="C189" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="190" spans="3:3">
+      <c r="D189" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="1">
+        <v>5.86</v>
+      </c>
+      <c r="F189">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6">
+      <c r="B190">
+        <v>185</v>
+      </c>
       <c r="C190" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="191" spans="3:3">
+      <c r="D190" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F190">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6">
       <c r="C191" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="3:3">
+      <c r="D191" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="1">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F191">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6">
       <c r="C192" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="3:3">
+      <c r="D192" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="1">
+        <v>8.32</v>
+      </c>
+      <c r="F192">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6">
       <c r="C193" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="194" spans="3:3">
+      <c r="D193" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="F193">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6">
+      <c r="B194">
+        <v>186</v>
+      </c>
       <c r="C194" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="195" spans="3:3">
+      <c r="D194" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="1">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F194">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6">
       <c r="C195" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="3:3">
+      <c r="D195" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="1">
+        <v>6.47</v>
+      </c>
+      <c r="F195">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6">
       <c r="C196" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="3:3">
+      <c r="D196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="1">
+        <v>11.46</v>
+      </c>
+      <c r="F196">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6">
       <c r="C197" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="198" spans="3:3">
+      <c r="D197" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="F197">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6">
+      <c r="B198">
+        <v>191</v>
+      </c>
       <c r="C198" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="199" spans="3:3">
+      <c r="D198" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="1">
+        <v>10.93</v>
+      </c>
+      <c r="F198">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6">
       <c r="C199" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="200" spans="3:3">
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" s="1">
+        <v>9.11</v>
+      </c>
+      <c r="F199">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6">
       <c r="C200" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="3:3">
+      <c r="D200" t="s">
+        <v>16</v>
+      </c>
+      <c r="E200" s="1">
+        <v>9.33</v>
+      </c>
+      <c r="F200">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6">
       <c r="C201" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="202" spans="3:3">
+      <c r="D201" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" s="1">
+        <v>14.12</v>
+      </c>
+      <c r="F201">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6">
+      <c r="B202">
+        <v>196</v>
+      </c>
       <c r="C202" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="203" spans="3:3">
+      <c r="D202" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="F202">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6">
       <c r="C203" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="204" spans="3:3">
+      <c r="D203" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="1">
+        <v>5.96</v>
+      </c>
+      <c r="F203">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6">
       <c r="C204" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="205" spans="3:3">
+      <c r="D204" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="F204">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6">
       <c r="C205" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="206" spans="3:3">
+      <c r="D205" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="1">
+        <v>11.28</v>
+      </c>
+      <c r="F205">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6">
+      <c r="B206">
+        <v>199</v>
+      </c>
       <c r="C206" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="207" spans="3:3">
+      <c r="D206" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="F206">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6">
       <c r="C207" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="208" spans="3:3">
+      <c r="D207" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="1">
+        <v>14.96</v>
+      </c>
+      <c r="F207">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6">
       <c r="C208" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="3:3">
+      <c r="D208" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="F208">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6">
       <c r="C209" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="210" spans="3:3">
+      <c r="D209" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="F209">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6">
+      <c r="B210">
+        <v>201</v>
+      </c>
       <c r="C210" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="211" spans="3:3">
+      <c r="D210" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="1">
+        <v>7.43</v>
+      </c>
+      <c r="F210">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6">
       <c r="C211" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="212" spans="3:3">
+      <c r="D211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="F211">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6">
       <c r="C212" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="3:3">
+      <c r="D212" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="F212">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6">
       <c r="C213" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="214" spans="3:3">
+      <c r="D213" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" s="1">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="F213">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6">
+      <c r="B214">
+        <v>207</v>
+      </c>
       <c r="C214" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="215" spans="3:3">
+      <c r="D214" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="F214">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6">
       <c r="C215" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="216" spans="3:3">
+      <c r="D215" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" s="1">
+        <v>6.34</v>
+      </c>
+      <c r="F215">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6">
       <c r="C216" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="3:3">
+      <c r="D216" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="F216">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6">
       <c r="C217" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="218" spans="3:3">
+      <c r="D217" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="F217">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6">
+      <c r="B218">
+        <v>210</v>
+      </c>
       <c r="C218" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="219" spans="3:3">
+      <c r="D218" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218" s="1">
+        <v>4.42</v>
+      </c>
+      <c r="F218">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6">
       <c r="C219" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="220" spans="3:3">
+      <c r="D219" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219" s="1">
+        <v>7.02</v>
+      </c>
+      <c r="F219">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6">
       <c r="C220" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="221" spans="3:3">
+      <c r="D220" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220" s="1">
+        <v>7.05</v>
+      </c>
+      <c r="F220">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6">
       <c r="C221" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="222" spans="3:3">
+      <c r="D221" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="F221">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6">
+      <c r="B222">
+        <v>212</v>
+      </c>
       <c r="C222" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="223" spans="3:3">
+      <c r="D222" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="F222">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6">
       <c r="C223" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="224" spans="3:3">
+      <c r="D223" t="s">
+        <v>11</v>
+      </c>
+      <c r="E223" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="F223">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6">
       <c r="C224" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="3:3">
+      <c r="D224" t="s">
+        <v>11</v>
+      </c>
+      <c r="E224" s="1">
+        <v>8.51</v>
+      </c>
+      <c r="F224">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6">
       <c r="C225" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="226" spans="3:3">
+      <c r="D225" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" s="1">
+        <v>6.33</v>
+      </c>
+      <c r="F225">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6">
+      <c r="B226">
+        <v>215</v>
+      </c>
       <c r="C226" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="227" spans="3:3">
+      <c r="D226" t="s">
+        <v>11</v>
+      </c>
+      <c r="E226" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="F226">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6">
       <c r="C227" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="228" spans="3:3">
+      <c r="D227" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" s="1">
+        <v>6.85</v>
+      </c>
+      <c r="F227">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6">
       <c r="C228" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="3:3">
+      <c r="D228" t="s">
+        <v>11</v>
+      </c>
+      <c r="E228" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="F228">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6">
       <c r="C229" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="230" spans="3:3">
+      <c r="D229" t="s">
+        <v>11</v>
+      </c>
+      <c r="E229" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="F229">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6">
+      <c r="B230">
+        <v>217</v>
+      </c>
       <c r="C230" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="231" spans="3:3">
+      <c r="D230" t="s">
+        <v>11</v>
+      </c>
+      <c r="E230" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="F230">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6">
       <c r="C231" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="232" spans="3:3">
+      <c r="D231" t="s">
+        <v>11</v>
+      </c>
+      <c r="E231" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="F231">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6">
       <c r="C232" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="3:3">
+      <c r="D232" t="s">
+        <v>11</v>
+      </c>
+      <c r="E232" s="1">
+        <v>3.46</v>
+      </c>
+      <c r="F232">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6">
       <c r="C233" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="234" spans="3:3">
+      <c r="D233" t="s">
+        <v>11</v>
+      </c>
+      <c r="E233" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="F233">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6">
+      <c r="B234">
+        <v>222</v>
+      </c>
       <c r="C234" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="235" spans="3:3">
+      <c r="D234" t="s">
+        <v>11</v>
+      </c>
+      <c r="E234" s="1">
+        <v>4.04</v>
+      </c>
+      <c r="F234">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6">
       <c r="C235" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="236" spans="3:3">
+      <c r="D235" t="s">
+        <v>11</v>
+      </c>
+      <c r="E235" s="1">
+        <v>6.02</v>
+      </c>
+      <c r="F235">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6">
       <c r="C236" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="237" spans="3:3">
+      <c r="D236" t="s">
+        <v>11</v>
+      </c>
+      <c r="E236" s="1">
+        <v>5.44</v>
+      </c>
+      <c r="F236">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6">
       <c r="C237" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="238" spans="3:3">
+      <c r="D237" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237" s="1">
+        <v>7.11</v>
+      </c>
+      <c r="F237">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6">
+      <c r="B238">
+        <v>225</v>
+      </c>
       <c r="C238" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="239" spans="3:3">
+      <c r="D238" t="s">
+        <v>11</v>
+      </c>
+      <c r="E238" s="1">
+        <v>8.23</v>
+      </c>
+      <c r="F238">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6">
       <c r="C239" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="240" spans="3:3">
+      <c r="D239" t="s">
+        <v>11</v>
+      </c>
+      <c r="E239" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="F239">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6">
       <c r="C240" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="241" spans="3:3">
+      <c r="D240" t="s">
+        <v>11</v>
+      </c>
+      <c r="E240" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="F240">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6">
       <c r="C241" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="242" spans="3:3">
+      <c r="D241" t="s">
+        <v>11</v>
+      </c>
+      <c r="E241" s="1">
+        <v>6.43</v>
+      </c>
+      <c r="F241">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6">
+      <c r="B242">
+        <v>227</v>
+      </c>
       <c r="C242" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="243" spans="3:3">
+      <c r="D242" t="s">
+        <v>11</v>
+      </c>
+      <c r="E242" s="1">
+        <v>6.11</v>
+      </c>
+      <c r="F242">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6">
       <c r="C243" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="244" spans="3:3">
+      <c r="D243" t="s">
+        <v>11</v>
+      </c>
+      <c r="E243" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="F243">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6">
       <c r="C244" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="245" spans="3:3">
+      <c r="D244" t="s">
+        <v>11</v>
+      </c>
+      <c r="E244" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F244">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6">
       <c r="C245" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="246" spans="3:3">
+      <c r="D245" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245" s="1">
+        <v>5.28</v>
+      </c>
+      <c r="F245">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6">
+      <c r="B246">
+        <v>230</v>
+      </c>
       <c r="C246" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="247" spans="3:3">
+      <c r="D246" t="s">
+        <v>11</v>
+      </c>
+      <c r="E246" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="F246">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6">
       <c r="C247" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="248" spans="3:3">
+      <c r="D247" t="s">
+        <v>11</v>
+      </c>
+      <c r="E247" s="1">
+        <v>4.87</v>
+      </c>
+      <c r="F247">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6">
       <c r="C248" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="3:3">
+      <c r="D248" t="s">
+        <v>11</v>
+      </c>
+      <c r="E248" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F248">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6">
       <c r="C249" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="250" spans="3:3">
+      <c r="D249" t="s">
+        <v>11</v>
+      </c>
+      <c r="E249" s="1">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="F249">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6">
+      <c r="B250">
+        <v>232</v>
+      </c>
       <c r="C250" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="251" spans="3:3">
+      <c r="D250" t="s">
+        <v>11</v>
+      </c>
+      <c r="E250" s="1">
+        <v>6.03</v>
+      </c>
+      <c r="F250">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6">
       <c r="C251" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="252" spans="3:3">
+      <c r="D251" t="s">
+        <v>11</v>
+      </c>
+      <c r="E251" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="F251">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6">
       <c r="C252" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="253" spans="3:3">
+      <c r="D252" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="1">
+        <v>8.17</v>
+      </c>
+      <c r="F252">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6">
       <c r="C253" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="254" spans="3:3">
+      <c r="D253" t="s">
+        <v>11</v>
+      </c>
+      <c r="E253" s="1">
+        <v>5.86</v>
+      </c>
+      <c r="F253">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6">
+      <c r="B254">
+        <v>236</v>
+      </c>
       <c r="C254" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="255" spans="3:3">
+      <c r="D254" t="s">
+        <v>11</v>
+      </c>
+      <c r="E254" s="1">
+        <v>6.07</v>
+      </c>
+      <c r="F254">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6">
       <c r="C255" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="256" spans="3:3">
+      <c r="D255" t="s">
+        <v>11</v>
+      </c>
+      <c r="E255" s="1">
+        <v>6.71</v>
+      </c>
+      <c r="F255">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6">
       <c r="C256" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="257" spans="3:3">
+      <c r="D256" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256" s="1">
+        <v>7.11</v>
+      </c>
+      <c r="F256">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6">
       <c r="C257" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="258" spans="3:3">
+      <c r="D257" t="s">
+        <v>11</v>
+      </c>
+      <c r="E257" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="F257">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6">
+      <c r="B258">
+        <v>241</v>
+      </c>
       <c r="C258" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="259" spans="3:3">
+      <c r="D258" t="s">
+        <v>11</v>
+      </c>
+      <c r="E258" s="1">
+        <v>5.28</v>
+      </c>
+      <c r="F258">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6">
       <c r="C259" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="260" spans="3:3">
+      <c r="D259" t="s">
+        <v>11</v>
+      </c>
+      <c r="E259" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="F259">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6">
       <c r="C260" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="261" spans="3:3">
+      <c r="D260" t="s">
+        <v>11</v>
+      </c>
+      <c r="E260" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="F260">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6">
       <c r="C261" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="262" spans="3:3">
+      <c r="D261" t="s">
+        <v>11</v>
+      </c>
+      <c r="E261" s="1">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="F261">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6">
+      <c r="B262">
+        <v>246</v>
+      </c>
       <c r="C262" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="263" spans="3:3">
+      <c r="D262" t="s">
+        <v>11</v>
+      </c>
+      <c r="E262" s="1">
+        <v>6.61</v>
+      </c>
+      <c r="F262">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6">
       <c r="C263" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="264" spans="3:3">
+      <c r="D263" t="s">
+        <v>11</v>
+      </c>
+      <c r="E263" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="F263">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6">
       <c r="C264" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="265" spans="3:3">
+      <c r="D264" t="s">
+        <v>11</v>
+      </c>
+      <c r="E264" s="1">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="F264">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6">
       <c r="C265" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="266" spans="3:3">
+      <c r="D265" t="s">
+        <v>11</v>
+      </c>
+      <c r="E265" s="1">
+        <v>3.76</v>
+      </c>
+      <c r="F265">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6">
+      <c r="B266">
+        <v>251</v>
+      </c>
       <c r="C266" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="267" spans="3:3">
+      <c r="D266" t="s">
+        <v>11</v>
+      </c>
+      <c r="E266" s="1">
+        <v>7.39</v>
+      </c>
+      <c r="F266">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6">
       <c r="C267" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="268" spans="3:3">
+      <c r="D267" t="s">
+        <v>11</v>
+      </c>
+      <c r="E267" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F267">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6">
       <c r="C268" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="269" spans="3:3">
+      <c r="D268" t="s">
+        <v>11</v>
+      </c>
+      <c r="E268" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="F268">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6">
       <c r="C269" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="270" spans="3:3">
+      <c r="D269" t="s">
+        <v>11</v>
+      </c>
+      <c r="E269" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="F269">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6">
+      <c r="B270">
+        <v>256</v>
+      </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="271" spans="3:3">
+      <c r="D270" t="s">
+        <v>11</v>
+      </c>
+      <c r="E270" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="F270">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6">
       <c r="C271" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="272" spans="3:3">
+      <c r="D271" t="s">
+        <v>11</v>
+      </c>
+      <c r="E271" s="1">
+        <v>9.09</v>
+      </c>
+      <c r="F271">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6">
       <c r="C272" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="273" spans="3:3">
+      <c r="D272" t="s">
+        <v>11</v>
+      </c>
+      <c r="E272" s="1">
+        <v>10.69</v>
+      </c>
+      <c r="F272">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6">
       <c r="C273" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="274" spans="3:3">
+      <c r="D273" t="s">
+        <v>11</v>
+      </c>
+      <c r="E273" s="1">
+        <v>7.62</v>
+      </c>
+      <c r="F273">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6">
+      <c r="B274">
+        <v>259</v>
+      </c>
       <c r="C274" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="275" spans="3:3">
+      <c r="D274" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274" s="1">
+        <v>5.49</v>
+      </c>
+      <c r="F274">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6">
       <c r="C275" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="276" spans="3:3">
+      <c r="D275" t="s">
+        <v>11</v>
+      </c>
+      <c r="E275" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="F275">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6">
       <c r="C276" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="277" spans="3:3">
+      <c r="D276" t="s">
+        <v>11</v>
+      </c>
+      <c r="E276" s="1">
+        <v>9.33</v>
+      </c>
+      <c r="F276">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6">
       <c r="C277" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="278" spans="3:3">
+      <c r="D277" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="F277">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6">
+      <c r="B278">
+        <v>261</v>
+      </c>
       <c r="C278" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="279" spans="3:3">
+      <c r="D278" t="s">
+        <v>11</v>
+      </c>
+      <c r="E278" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="F278">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6">
       <c r="C279" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="280" spans="3:3">
+      <c r="D279" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279" s="1">
+        <v>6.34</v>
+      </c>
+      <c r="F279">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6">
       <c r="C280" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="281" spans="3:3">
+      <c r="D280" t="s">
+        <v>11</v>
+      </c>
+      <c r="E280" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="F280">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6">
       <c r="C281" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="282" spans="3:3">
+      <c r="D281" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="F281">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6">
+      <c r="B282">
+        <v>264</v>
+      </c>
       <c r="C282" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="283" spans="3:3">
+      <c r="D282" t="s">
+        <v>11</v>
+      </c>
+      <c r="E282" s="1">
+        <v>5.98</v>
+      </c>
+      <c r="F282">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6">
       <c r="C283" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="284" spans="3:3">
+      <c r="D283" t="s">
+        <v>11</v>
+      </c>
+      <c r="E283" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="F283">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6">
       <c r="C284" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="285" spans="3:3">
+      <c r="D284" t="s">
+        <v>11</v>
+      </c>
+      <c r="E284" s="1">
+        <v>6.84</v>
+      </c>
+      <c r="F284">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6">
       <c r="C285" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="286" spans="3:3">
+      <c r="D285" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285" s="1">
+        <v>7.36</v>
+      </c>
+      <c r="F285">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6">
+      <c r="B286">
+        <v>266</v>
+      </c>
       <c r="C286" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="287" spans="3:3">
+      <c r="D286" t="s">
+        <v>11</v>
+      </c>
+      <c r="E286" s="1">
+        <v>11.73</v>
+      </c>
+      <c r="F286">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6">
       <c r="C287" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="288" spans="3:3">
+      <c r="D287" t="s">
+        <v>11</v>
+      </c>
+      <c r="E287" s="1">
+        <v>6.38</v>
+      </c>
+      <c r="F287">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6">
       <c r="C288" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="289" spans="3:3">
+      <c r="D288" t="s">
+        <v>11</v>
+      </c>
+      <c r="E288" s="1">
+        <v>10.71</v>
+      </c>
+      <c r="F288">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6">
       <c r="C289" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="290" spans="3:3">
+      <c r="D289" t="s">
+        <v>11</v>
+      </c>
+      <c r="E289" s="1">
+        <v>6.19</v>
+      </c>
+      <c r="F289">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6">
+      <c r="B290">
+        <v>269</v>
+      </c>
       <c r="C290" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="291" spans="3:3">
+      <c r="D290" t="s">
+        <v>11</v>
+      </c>
+      <c r="E290" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="F290">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6">
       <c r="C291" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="292" spans="3:3">
+      <c r="D291" t="s">
+        <v>11</v>
+      </c>
+      <c r="E291" s="1">
+        <v>8.06</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6">
       <c r="C292" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="293" spans="3:3">
+      <c r="D292" t="s">
+        <v>11</v>
+      </c>
+      <c r="E292" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="F292">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6">
       <c r="C293" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="294" spans="3:3">
+      <c r="D293" t="s">
+        <v>11</v>
+      </c>
+      <c r="E293" s="1">
+        <v>4.09</v>
+      </c>
+      <c r="F293">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6">
+      <c r="B294">
+        <v>271</v>
+      </c>
       <c r="C294" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="295" spans="3:3">
+      <c r="D294" t="s">
+        <v>11</v>
+      </c>
+      <c r="E294" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="F294">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6">
       <c r="C295" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="296" spans="3:3">
+      <c r="D295" t="s">
+        <v>11</v>
+      </c>
+      <c r="E295" s="1">
+        <v>6.62</v>
+      </c>
+      <c r="F295">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6">
       <c r="C296" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="297" spans="3:3">
+      <c r="D296" t="s">
+        <v>11</v>
+      </c>
+      <c r="E296" s="1">
+        <v>6.59</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6">
       <c r="C297" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="298" spans="3:3">
+      <c r="D297" t="s">
+        <v>11</v>
+      </c>
+      <c r="E297" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="F297">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6">
+      <c r="B298">
+        <v>274</v>
+      </c>
       <c r="C298" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="299" spans="3:3">
+      <c r="D298" t="s">
+        <v>11</v>
+      </c>
+      <c r="E298" s="1">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="F298">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6">
       <c r="C299" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="300" spans="3:3">
+      <c r="D299" t="s">
+        <v>11</v>
+      </c>
+      <c r="E299" s="1">
+        <v>6.31</v>
+      </c>
+      <c r="F299">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6">
       <c r="C300" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="301" spans="3:3">
+      <c r="D300" t="s">
+        <v>11</v>
+      </c>
+      <c r="E300" s="1">
+        <v>6.42</v>
+      </c>
+      <c r="F300">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6">
       <c r="C301" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="302" spans="3:3">
+      <c r="D301" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301" s="1">
+        <v>11</v>
+      </c>
+      <c r="F301">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6">
+      <c r="B302">
+        <v>276</v>
+      </c>
       <c r="C302" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="303" spans="3:3">
+      <c r="D302" t="s">
+        <v>11</v>
+      </c>
+      <c r="E302" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="F302">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6">
       <c r="C303" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="304" spans="3:3">
+      <c r="D303" t="s">
+        <v>11</v>
+      </c>
+      <c r="E303" s="1">
+        <v>10.19</v>
+      </c>
+      <c r="F303">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6">
       <c r="C304" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="305" spans="3:3">
+      <c r="D304" t="s">
+        <v>11</v>
+      </c>
+      <c r="E304" s="1">
+        <v>8.06</v>
+      </c>
+      <c r="F304">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6">
       <c r="C305" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="306" spans="3:3">
+      <c r="D305" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F305">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6">
+      <c r="B306">
+        <v>281</v>
+      </c>
       <c r="C306" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="307" spans="3:3">
+      <c r="D306" t="s">
+        <v>11</v>
+      </c>
+      <c r="E306" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="F306">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6">
       <c r="C307" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="308" spans="3:3">
+      <c r="D307" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" s="1">
+        <v>7.89</v>
+      </c>
+      <c r="F307">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6">
       <c r="C308" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="309" spans="3:3">
+      <c r="D308" t="s">
+        <v>11</v>
+      </c>
+      <c r="E308" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="F308">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6">
       <c r="C309" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="310" spans="3:3">
+      <c r="D309" t="s">
+        <v>11</v>
+      </c>
+      <c r="E309" s="1">
+        <v>6.54</v>
+      </c>
+      <c r="F309">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="2:6">
+      <c r="B310">
+        <v>284</v>
+      </c>
       <c r="C310" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="311" spans="3:3">
+      <c r="D310" t="s">
+        <v>11</v>
+      </c>
+      <c r="E310" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="F310">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6">
       <c r="C311" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="312" spans="3:3">
+      <c r="D311" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311" s="1">
+        <v>4.49</v>
+      </c>
+      <c r="F311">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6">
       <c r="C312" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="313" spans="3:3">
+      <c r="D312" t="s">
+        <v>11</v>
+      </c>
+      <c r="E312" s="1">
+        <v>6.51</v>
+      </c>
+      <c r="F312">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6">
       <c r="C313" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="314" spans="3:3">
+      <c r="D313" t="s">
+        <v>11</v>
+      </c>
+      <c r="E313" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="F313">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6">
+      <c r="B314">
+        <v>286</v>
+      </c>
       <c r="C314" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="315" spans="3:3">
+      <c r="D314" t="s">
+        <v>11</v>
+      </c>
+      <c r="E314" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="F314">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6">
       <c r="C315" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="316" spans="3:3">
+      <c r="D315" t="s">
+        <v>11</v>
+      </c>
+      <c r="E315" s="1">
+        <v>5.41</v>
+      </c>
+      <c r="F315">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6">
       <c r="C316" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="317" spans="3:3">
+      <c r="D316" t="s">
+        <v>11</v>
+      </c>
+      <c r="E316" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="F316">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6">
       <c r="C317" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="318" spans="3:3">
+      <c r="D317" t="s">
+        <v>11</v>
+      </c>
+      <c r="E317" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="F317">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6">
+      <c r="B318">
+        <v>291</v>
+      </c>
       <c r="C318" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="319" spans="3:3">
+      <c r="D318" t="s">
+        <v>11</v>
+      </c>
+      <c r="E318" s="1">
+        <v>6.54</v>
+      </c>
+      <c r="F318">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="319" spans="2:6">
       <c r="C319" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="320" spans="3:3">
+      <c r="D319" t="s">
+        <v>11</v>
+      </c>
+      <c r="E319" s="1">
+        <v>5.87</v>
+      </c>
+      <c r="F319">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6">
       <c r="C320" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="321" spans="3:3">
+      <c r="D320" t="s">
+        <v>11</v>
+      </c>
+      <c r="E320" s="1">
+        <v>6.94</v>
+      </c>
+      <c r="F320">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6">
       <c r="C321" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="322" spans="3:3">
+      <c r="D321" t="s">
+        <v>11</v>
+      </c>
+      <c r="E321" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="F321">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="322" spans="2:6">
+      <c r="B322">
+        <v>296</v>
+      </c>
       <c r="C322" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="323" spans="3:3">
+      <c r="D322" t="s">
+        <v>11</v>
+      </c>
+      <c r="E322" s="1">
+        <v>5.52</v>
+      </c>
+      <c r="F322">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="323" spans="2:6">
       <c r="C323" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="324" spans="3:3">
+      <c r="D323" t="s">
+        <v>11</v>
+      </c>
+      <c r="E323" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="F323">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="324" spans="2:6">
       <c r="C324" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="325" spans="3:3">
+      <c r="D324" t="s">
+        <v>11</v>
+      </c>
+      <c r="E324" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="F324">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="325" spans="2:6">
       <c r="C325" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="326" spans="3:3">
+      <c r="D325" t="s">
+        <v>11</v>
+      </c>
+      <c r="E325" s="1">
+        <v>8.15</v>
+      </c>
+      <c r="F325">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6">
+      <c r="B326">
+        <v>299</v>
+      </c>
       <c r="C326" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="327" spans="3:3">
+      <c r="D326" t="s">
+        <v>17</v>
+      </c>
+      <c r="E326" s="1">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="F326">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6">
       <c r="C327" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="328" spans="3:3">
+      <c r="D327" t="s">
+        <v>11</v>
+      </c>
+      <c r="E327" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="F327">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="328" spans="2:6">
       <c r="C328" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="329" spans="3:3">
+      <c r="D328" t="s">
+        <v>11</v>
+      </c>
+      <c r="E328" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="F328">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="329" spans="2:6">
       <c r="C329" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="330" spans="3:3">
+      <c r="D329" t="s">
+        <v>11</v>
+      </c>
+      <c r="E329" s="1">
+        <v>8.43</v>
+      </c>
+      <c r="F329">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="330" spans="2:6">
+      <c r="B330">
+        <v>301</v>
+      </c>
       <c r="C330" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="331" spans="3:3">
+      <c r="D330" t="s">
+        <v>17</v>
+      </c>
+      <c r="E330" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="F330">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6">
       <c r="C331" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="332" spans="3:3">
+      <c r="D331" t="s">
+        <v>11</v>
+      </c>
+      <c r="E331" s="1">
+        <v>6.38</v>
+      </c>
+      <c r="F331">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="332" spans="2:6">
       <c r="C332" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="333" spans="3:3">
+      <c r="D332" t="s">
+        <v>17</v>
+      </c>
+      <c r="E332" s="1">
+        <v>5.41</v>
+      </c>
+      <c r="F332">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="333" spans="2:6">
       <c r="C333" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="334" spans="3:3">
+      <c r="D333" t="s">
+        <v>17</v>
+      </c>
+      <c r="E333" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="F333">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="334" spans="2:6">
+      <c r="B334">
+        <v>306</v>
+      </c>
       <c r="C334" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="335" spans="3:3">
+      <c r="D334" t="s">
+        <v>11</v>
+      </c>
+      <c r="E334" s="1">
+        <v>8.31</v>
+      </c>
+      <c r="F334">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="335" spans="2:6">
       <c r="C335" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="336" spans="3:3">
+      <c r="D335" t="s">
+        <v>11</v>
+      </c>
+      <c r="E335" s="1">
+        <v>9.31</v>
+      </c>
+      <c r="F335">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="336" spans="2:6">
       <c r="C336" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="337" spans="3:3">
+      <c r="D336" t="s">
+        <v>11</v>
+      </c>
+      <c r="E336" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F336">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6">
       <c r="C337" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="338" spans="3:3">
+      <c r="D337" t="s">
+        <v>11</v>
+      </c>
+      <c r="E337" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="F337">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6">
+      <c r="B338">
+        <v>309</v>
+      </c>
       <c r="C338" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="339" spans="3:3">
+      <c r="D338" t="s">
+        <v>11</v>
+      </c>
+      <c r="E338" s="1">
+        <v>5.54</v>
+      </c>
+      <c r="F338">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6">
       <c r="C339" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="340" spans="3:3">
+      <c r="D339" t="s">
+        <v>11</v>
+      </c>
+      <c r="E339" s="1">
+        <v>9.57</v>
+      </c>
+      <c r="F339">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="340" spans="2:6">
       <c r="C340" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="341" spans="3:3">
+      <c r="D340" t="s">
+        <v>11</v>
+      </c>
+      <c r="E340" s="1">
+        <v>7.01</v>
+      </c>
+      <c r="F340">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6">
       <c r="C341" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="342" spans="3:3">
+      <c r="D341" t="s">
+        <v>11</v>
+      </c>
+      <c r="E341" s="1">
+        <v>7.19</v>
+      </c>
+      <c r="F341">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="342" spans="2:6">
+      <c r="B342">
+        <v>311</v>
+      </c>
       <c r="C342" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="343" spans="3:3">
+      <c r="D342" t="s">
+        <v>11</v>
+      </c>
+      <c r="E342" s="1">
+        <v>5.04</v>
+      </c>
+      <c r="F342">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6">
       <c r="C343" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="344" spans="3:3">
+      <c r="D343" t="s">
+        <v>11</v>
+      </c>
+      <c r="E343" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="F343">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6">
       <c r="C344" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="345" spans="3:3">
+      <c r="D344" t="s">
+        <v>11</v>
+      </c>
+      <c r="E344" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F344">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="345" spans="2:6">
       <c r="C345" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="346" spans="3:3">
+      <c r="D345" t="s">
+        <v>11</v>
+      </c>
+      <c r="E345" s="1">
+        <v>6.62</v>
+      </c>
+      <c r="F345">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6">
+      <c r="B346">
+        <v>316</v>
+      </c>
       <c r="C346" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="347" spans="3:3">
+      <c r="D346" t="s">
+        <v>11</v>
+      </c>
+      <c r="E346" s="1">
+        <v>6.68</v>
+      </c>
+      <c r="F346">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6">
       <c r="C347" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="348" spans="3:3">
+      <c r="D347" t="s">
+        <v>11</v>
+      </c>
+      <c r="E347" s="1">
+        <v>5.48</v>
+      </c>
+      <c r="F347">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="348" spans="2:6">
       <c r="C348" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="349" spans="3:3">
+      <c r="D348" t="s">
+        <v>11</v>
+      </c>
+      <c r="E348" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="F348">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6">
       <c r="C349" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="350" spans="3:3">
+      <c r="D349" t="s">
+        <v>11</v>
+      </c>
+      <c r="E349" s="1">
+        <v>6.59</v>
+      </c>
+      <c r="F349">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="350" spans="2:6">
+      <c r="B350">
+        <v>324</v>
+      </c>
       <c r="C350" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="351" spans="3:3">
+      <c r="D350" t="s">
+        <v>11</v>
+      </c>
+      <c r="E350" s="1">
+        <v>5.51</v>
+      </c>
+      <c r="F350">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6">
       <c r="C351" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="352" spans="3:3">
+      <c r="D351" t="s">
+        <v>11</v>
+      </c>
+      <c r="E351" s="1">
+        <v>10.27</v>
+      </c>
+      <c r="F351">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6">
       <c r="C352" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="353" spans="3:3">
+      <c r="D352" t="s">
+        <v>11</v>
+      </c>
+      <c r="E352" s="1">
+        <v>5.09</v>
+      </c>
+      <c r="F352">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6">
       <c r="C353" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="354" spans="3:3">
+      <c r="D353" t="s">
+        <v>11</v>
+      </c>
+      <c r="E353" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="F353">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6">
+      <c r="B354">
+        <v>325</v>
+      </c>
       <c r="C354" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="355" spans="3:3">
+      <c r="D354" t="s">
+        <v>11</v>
+      </c>
+      <c r="E354" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="F354">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6">
       <c r="C355" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="356" spans="3:3">
+      <c r="D355" t="s">
+        <v>11</v>
+      </c>
+      <c r="E355" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="F355">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6">
       <c r="C356" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="357" spans="3:3">
+      <c r="D356" t="s">
+        <v>11</v>
+      </c>
+      <c r="E356" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="F356">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6">
       <c r="C357" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="358" spans="3:3">
+      <c r="D357" t="s">
+        <v>11</v>
+      </c>
+      <c r="E357" s="1">
+        <v>5.49</v>
+      </c>
+      <c r="F357">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6">
+      <c r="B358">
+        <v>330</v>
+      </c>
       <c r="C358" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="359" spans="3:3">
+      <c r="D358" t="s">
+        <v>11</v>
+      </c>
+      <c r="E358" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="F358">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6">
       <c r="C359" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="360" spans="3:3">
+      <c r="D359" t="s">
+        <v>11</v>
+      </c>
+      <c r="E359" s="1">
+        <v>8.56</v>
+      </c>
+      <c r="F359">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6">
       <c r="C360" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="361" spans="3:3">
+      <c r="D360" t="s">
+        <v>11</v>
+      </c>
+      <c r="E360" s="1">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="F360">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6">
       <c r="C361" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="362" spans="3:3">
+      <c r="D361" t="s">
+        <v>11</v>
+      </c>
+      <c r="E361" s="1">
+        <v>6.94</v>
+      </c>
+      <c r="F361">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="362" spans="2:6">
+      <c r="B362">
+        <v>336</v>
+      </c>
       <c r="C362" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="363" spans="3:3">
+      <c r="D362" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="2:6">
       <c r="C363" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="364" spans="3:3">
+      <c r="D363" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6">
       <c r="C364" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="365" spans="3:3">
+      <c r="D364" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6">
       <c r="C365" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="366" spans="3:3">
+      <c r="D365" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6">
+      <c r="B366">
+        <v>339</v>
+      </c>
       <c r="C366" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="367" spans="3:3">
+      <c r="D366" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="367" spans="2:6">
       <c r="C367" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="368" spans="3:3">
+      <c r="D367" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="368" spans="2:6">
       <c r="C368" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="369" spans="3:3">
+      <c r="D368" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4">
       <c r="C369" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="370" spans="3:3">
+      <c r="D369" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4">
+      <c r="B370">
+        <v>343</v>
+      </c>
       <c r="C370" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="371" spans="3:3">
+      <c r="D370" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4">
       <c r="C371" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="372" spans="3:3">
+      <c r="D371" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4">
       <c r="C372" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="373" spans="3:3">
+      <c r="D372" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4">
       <c r="C373" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="374" spans="3:3">
+      <c r="D373" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4">
+      <c r="B374">
+        <v>345</v>
+      </c>
       <c r="C374" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="375" spans="3:3">
+      <c r="D374" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4">
       <c r="C375" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="376" spans="3:3">
+      <c r="D375" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4">
       <c r="C376" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="377" spans="3:3">
+      <c r="D376" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4">
       <c r="C377" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="378" spans="3:3">
+      <c r="D377" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4">
+      <c r="B378">
+        <v>349</v>
+      </c>
       <c r="C378" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="379" spans="3:3">
+      <c r="D378" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4">
       <c r="C379" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="380" spans="3:3">
+      <c r="D379" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4">
       <c r="C380" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="381" spans="3:3">
+      <c r="D380" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4">
       <c r="C381" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="382" spans="3:3">
+      <c r="D381" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4">
+      <c r="B382">
+        <v>354</v>
+      </c>
       <c r="C382" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="383" spans="3:3">
+      <c r="D382" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4">
       <c r="C383" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="384" spans="3:3">
+      <c r="D383" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4">
       <c r="C384" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="385" spans="3:3">
+      <c r="D384" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4">
       <c r="C385" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="386" spans="3:3">
+      <c r="D385" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4">
+      <c r="B386">
+        <v>359</v>
+      </c>
       <c r="C386" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="387" spans="3:3">
+      <c r="D386" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4">
       <c r="C387" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="388" spans="3:3">
+      <c r="D387" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4">
       <c r="C388" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="389" spans="3:3">
+      <c r="D388" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4">
       <c r="C389" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="390" spans="3:3">
+      <c r="D389" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4">
+      <c r="B390">
+        <v>363</v>
+      </c>
       <c r="C390" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="391" spans="3:3">
+      <c r="D390" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4">
       <c r="C391" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="392" spans="3:3">
+      <c r="D391" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4">
       <c r="C392" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="393" spans="3:3">
+      <c r="D392" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4">
       <c r="C393" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="394" spans="3:3">
+      <c r="D393" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4">
+      <c r="B394">
+        <v>368</v>
+      </c>
       <c r="C394" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="395" spans="3:3">
+      <c r="D394" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4">
       <c r="C395" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="396" spans="3:3">
+      <c r="D395" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4">
       <c r="C396" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="397" spans="3:3">
+      <c r="D396" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4">
       <c r="C397" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="398" spans="3:3">
+      <c r="D397" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4">
+      <c r="B398">
+        <v>373</v>
+      </c>
       <c r="C398" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="399" spans="3:3">
+      <c r="D398" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4">
       <c r="C399" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="400" spans="3:3">
+      <c r="D399" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4">
       <c r="C400" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="401" spans="3:3">
+      <c r="D400" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4">
       <c r="C401" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="402" spans="3:3">
+      <c r="D401" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4">
+      <c r="B402">
+        <v>378</v>
+      </c>
       <c r="C402" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="403" spans="3:3">
+      <c r="D402" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4">
       <c r="C403" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="404" spans="3:3">
+      <c r="D403" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4">
       <c r="C404" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="405" spans="3:3">
+      <c r="D404" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4">
       <c r="C405" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="406" spans="3:3">
+      <c r="D405" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4">
+      <c r="B406">
+        <v>384</v>
+      </c>
       <c r="C406" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="407" spans="3:3">
+      <c r="D406" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4">
       <c r="C407" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="3:3">
+    <row r="408" spans="2:4">
       <c r="C408" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="3:3">
+    <row r="409" spans="2:4">
       <c r="C409" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="3:3">
+    <row r="410" spans="2:4">
       <c r="C410" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="3:3">
+    <row r="411" spans="2:4">
       <c r="C411" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="3:3">
+    <row r="412" spans="2:4">
       <c r="C412" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="3:3">
+    <row r="413" spans="2:4">
       <c r="C413" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="3:3">
+    <row r="414" spans="2:4">
       <c r="C414" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="3:3">
+    <row r="415" spans="2:4">
       <c r="C415" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="3:3">
+    <row r="416" spans="2:4">
       <c r="C416" t="s">
         <v>8</v>
       </c>
